--- a/src/test/resources/testData/cucumberTest.xlsx
+++ b/src/test/resources/testData/cucumberTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/279ebc907b7b4624/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szhan\IdeaProjects\Cucumber\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_F25DC773A252ABDACC104827B19D61185BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BF5037A-013D-4610-9857-64831D4170C9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093C178F-4A6F-4119-8401-B2FC7638BFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="1272" windowWidth="14436" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3324" yWindow="3456" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeData" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <t>messi123</t>
   </si>
   <si>
-    <t>C:\Users\szhan\OneDrive\Desktop\newImage.jpg</t>
+    <t>C:\SDET Programs\Cucumber Excel Test\newImage.jpg</t>
   </si>
 </sst>
 </file>
@@ -125,9 +125,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,7 +416,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,7 +461,7 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
@@ -483,7 +484,7 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
@@ -506,7 +507,7 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">

--- a/src/test/resources/testData/cucumberTest.xlsx
+++ b/src/test/resources/testData/cucumberTest.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szhan\IdeaProjects\Cucumber\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093C178F-4A6F-4119-8401-B2FC7638BFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB67DD1C-EFCD-41E4-ACE3-A6BD50A53B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3324" yWindow="3456" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeData" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>firstName</t>
   </si>
@@ -36,9 +37,6 @@
     <t>lastName</t>
   </si>
   <si>
-    <t>photo</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -48,40 +46,25 @@
     <t>confirmPassword</t>
   </si>
   <si>
-    <t>ivan</t>
-  </si>
-  <si>
     <t>ms</t>
   </si>
   <si>
-    <t>anton</t>
-  </si>
-  <si>
-    <t>ivan123</t>
-  </si>
-  <si>
     <t>Syntax123!</t>
   </si>
   <si>
-    <t>neel</t>
-  </si>
-  <si>
-    <t>ronaldo</t>
-  </si>
-  <si>
-    <t>neel123</t>
-  </si>
-  <si>
-    <t>messi</t>
-  </si>
-  <si>
-    <t>mbappe</t>
-  </si>
-  <si>
-    <t>messi123</t>
-  </si>
-  <si>
     <t>C:\SDET Programs\Cucumber Excel Test\newImage.jpg</t>
+  </si>
+  <si>
+    <t>shani</t>
+  </si>
+  <si>
+    <t>shmiley</t>
+  </si>
+  <si>
+    <t>shmiley123</t>
+  </si>
+  <si>
+    <t>photograph</t>
   </si>
 </sst>
 </file>
@@ -415,15 +398,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
@@ -439,89 +423,110 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
+      <c r="D4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E16FBA-3B94-4538-966D-B2FB83E2520B}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testData/cucumberTest.xlsx
+++ b/src/test/resources/testData/cucumberTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szhan\IdeaProjects\Cucumber\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB67DD1C-EFCD-41E4-ACE3-A6BD50A53B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580166FF-1CD7-48FA-A3D1-D145CF7A7553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,10 +475,18 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
